--- a/pagespeed_results.xlsx
+++ b/pagespeed_results.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,286 +503,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://templates.casloop.net/markethink/template-kit/home-1/?storefront=envato-elements</t>
+          <t>https://soziely.tokotema.com?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>96</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://demo2.eightheme.com/socialwave/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>89</v>
+          <t>https://kits.yumnatype.com/levi/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>34</v>
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>56.99999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://tykit.rometheme.pro/felicity/?storefront=envato-elements</t>
+          <t>https://bimberonline.com/riserank/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>57.99999999999999</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://site.sociolib.com/valid/template-kit/home/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
+          <t>https://kits.typstd.com/quanta/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2" t="n">
+      <c r="C5" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://hrkit.rometheme.pro/axcorp/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>55.00000000000001</v>
+          <t>https://digicours.1onestrong.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>54</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://wp.hixstudio.net/collax/prev/?storefront=envato-elements</t>
+          <t>https://askproject.net/nabel/home/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="1" t="n">
         <v>96</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://kit.pixel-show.com/grasp/template-kit/home/?storefront=envato-elements</t>
+          <t>https://elementorpress.com/templatekit-pro/layout23/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="I8" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://variety.axiomthemes.com/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="n">
+          <t>https://wphix.com/wp/cetalog/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>85</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://demo.creativemox.com/technobiz/template-kit/homepage/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>83</v>
+          <t>https://themexriver.com/wp/gesto/demos/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>56.00000000000001</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>70</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://askproject.net/brance/home/?storefront=envato-elements</t>
+          <t>https://kit.allfridaystudio.com/seofriday/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
@@ -797,358 +797,1071 @@
       <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>77</v>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://template-kit1.evonicmedia.com/layout46/?storefront=envato-elements</t>
+          <t>https://numerique.vamtam.com/landing-page/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>71</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://template-kit.evonicmedia.com/layout9/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="n">
+          <t>https://container.deverust.com/medboost/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>54</v>
+      <c r="C13" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://elementor.din-studio.com/seihintech/?storefront=envato-elements</t>
+          <t>https://demo.bosathemes.com/agence/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="C14" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>100</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H14" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>96</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://kit.sociolib.com/digitalize/template-kit/home/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>67</v>
+          <t>https://modinatheme.com/azent/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://esio.modeltheme.com/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>56.00000000000001</v>
+          <t>https://keystonethemes.com/demo/lunax/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>75</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://demo.sociolib.com/aida/template-kit/home/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="D17" s="2" t="n">
+          <t>https://wp.ditsolution.net/dexon/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>100</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://pxltheme.com/templatekit/dewok/demo?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="n">
+          <t>https://themexriver.com/wp/aginco/</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <v>80</v>
+      <c r="D18" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>73</v>
+        <v>96</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://influence.1onestrong.com/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>84</v>
+          <t>https://victorthemes.com/themes/fame/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>57.99999999999999</v>
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://bracketweb.com/digihubwp/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="n">
+          <t>https://kit.envalabdemos.com/unitedseo/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="n">
+      <c r="F20" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>83</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://templatekit.jegtheme.com/bazzer/?storefront=envato-elements</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1" t="n">
+          <t>https://tykit.rometheme.pro/teracloud/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>69</v>
+      <c r="F21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://bizzpro.wowtheme7.com/?storefront=envato-elements</t>
+          <t>https://elementorkits.nathatype.com/marketplan/?storefront=envato-elements</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://demo.moxcreative.com/kreatifa/template-kit/homepage/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://inset.ancorathemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://template-kit.evonicmedia.com/layout13/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://confidant.axiomthemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://original.axiomthemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://demo.bravisthemes.com/qolle/landing-page/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://thrive.axiomthemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://site.sociolib.com/crowd/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://elementorkits.nathatype.com/dinamited/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://web.sociolib.com/analog/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://hrkit.rometheme.pro/zelow/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://martech.axiomthemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://hrkit.rometheme.pro/zepeto/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="G22" s="2" t="n">
+      <c r="F35" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://victorthemes.com/splash/caspiar/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://granola.themerex.net/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>85</v>
+      <c r="D37" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://site.sociolib.com/valid/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://hrkit.rometheme.pro/axcorp/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://kit.pixel-show.com/grasp/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://variety.axiomthemes.com/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://askproject.net/brance/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://kit.sociolib.com/digitalize/template-kit/home/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://elementor.altdesain.com/virly/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>57.99999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.wordpress.codeinsolution.com/savvy/?storefront=envato-elements</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
